--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,7 +293,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1179,6 +1179,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5653,13 +5657,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5710,7 +5714,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5734,7 +5738,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5745,7 +5749,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5774,7 +5778,7 @@
         <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
@@ -5827,7 +5831,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5851,7 +5855,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5862,11 +5866,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5888,10 +5892,10 @@
         <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>139</v>
@@ -5946,7 +5950,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5981,7 +5985,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6004,13 +6008,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6061,7 +6065,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6074,7 @@
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -6082,10 +6086,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6100,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6119,13 +6123,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6176,7 +6180,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6185,7 +6189,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6197,10 +6201,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6211,7 +6215,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,16 +6241,16 @@
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6274,10 +6278,10 @@
         <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6295,7 +6299,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6313,10 +6317,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>302</v>
@@ -6330,7 +6334,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,16 +6360,16 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6393,10 +6397,10 @@
         <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6414,7 +6418,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6432,10 +6436,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>302</v>
@@ -6449,7 +6453,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6472,17 +6476,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6531,7 +6535,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6555,7 +6559,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6570,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6589,13 +6593,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6646,7 +6650,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6667,10 +6671,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6681,7 +6685,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6704,16 +6708,16 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6763,7 +6767,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6788,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6798,7 +6802,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6821,16 +6825,16 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6880,7 +6884,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6901,10 +6905,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6915,7 +6919,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6941,16 +6945,16 @@
         <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6999,7 +7003,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7020,10 +7024,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7034,7 +7038,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7057,13 +7061,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7114,7 +7118,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7138,7 +7142,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7149,7 +7153,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7178,7 +7182,7 @@
         <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
@@ -7231,7 +7235,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7259,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7266,11 +7270,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7292,10 +7296,10 @@
         <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>139</v>
@@ -7350,7 +7354,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7385,7 +7389,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7411,13 +7415,13 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>207</v>
@@ -7448,10 +7452,10 @@
         <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7469,7 +7473,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>90</v>
@@ -7487,7 +7491,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>211</v>
@@ -7504,7 +7508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7527,16 +7531,16 @@
         <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>276</v>
@@ -7588,7 +7592,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7606,7 +7610,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7623,7 +7627,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7649,13 +7653,13 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>286</v>
@@ -7707,7 +7711,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7742,7 +7746,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7771,13 +7775,13 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7826,7 +7830,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7861,7 +7865,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7887,16 +7891,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7945,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
